--- a/occlusion_lod_results.xlsx
+++ b/occlusion_lod_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matid\Documents\CMGT_Saxion\year2\term3\AdvTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matid\Documents\CMGT_Saxion\year2\term3\AdvTools\occlusion_lod_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E22648-CC50-4573-B4DD-33263E805E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD5752-15AB-43E7-A2DC-9C5AC0D321CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14580" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{7E450DCB-3C21-4CB8-B46E-552A144E7EE6}"/>
   </bookViews>
@@ -13815,8 +13815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F816F23-A945-4835-9B9A-1F8BE300B92D}">
   <dimension ref="A3:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA162" sqref="AA162"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
